--- a/biology/Biochimie/Nucléotide_cyclique_phosphodiestérase/Nucléotide_cyclique_phosphodiestérase.xlsx
+++ b/biology/Biochimie/Nucléotide_cyclique_phosphodiestérase/Nucléotide_cyclique_phosphodiestérase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nucl%C3%A9otide_cyclique_phosphodiest%C3%A9rase</t>
+          <t>Nucléotide_cyclique_phosphodiestérase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une nucléotide 3’5’-cyclique phosphodiestérase est une phosphodiestérase qui catalyse l'hydrolyse d'un nucléoside monophosphate 3’5’-cyclique (en) en nucléoside-5’-phosphate, ce qui a pour effet de contrôler le taux en seconds messagers des processus de transduction de signal en accélérant leur dégradation[2]. Les nucléosides monophosphate 3’5’-cycliques les plus courants sont l'AMP 3’5’-cyclique et le GMP 3’5’-cyclique, mais il en existe d'autres, comme le dAMP 3’5’-cyclique, l'IMP 3’5’-cyclique ou le CMP 3’5’-cyclique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une nucléotide 3’5’-cyclique phosphodiestérase est une phosphodiestérase qui catalyse l'hydrolyse d'un nucléoside monophosphate 3’5’-cyclique (en) en nucléoside-5’-phosphate, ce qui a pour effet de contrôler le taux en seconds messagers des processus de transduction de signal en accélérant leur dégradation. Les nucléosides monophosphate 3’5’-cycliques les plus courants sont l'AMP 3’5’-cyclique et le GMP 3’5’-cyclique, mais il en existe d'autres, comme le dAMP 3’5’-cyclique, l'IMP 3’5’-cyclique ou le CMP 3’5’-cyclique.
 Il existe 11 familles de phosphodiestérases distinctes, notées de PDE1 à PDE11, avec un ensemble d'isoformes et d'épissages ayant des structures tridimensionnelles, des propriétés cinétiques, des modes de régulation, des localisations intracellulaires, des modes d'expression cellulaires et des sensibilités spécifiques aux inhibiteurs.
 </t>
         </is>
